--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -17,13 +17,26 @@
     <sheet name="Cube 3" sheetId="4" r:id="rId3"/>
     <sheet name="Cube 4" sheetId="5" r:id="rId4"/>
     <sheet name="Cube 5" sheetId="3" r:id="rId5"/>
+    <sheet name="Model params" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="a_c">'Model params'!$H$2</definedName>
+    <definedName name="a_p">'Model params'!$H$3</definedName>
+    <definedName name="a_p_2">'Model params'!$H$9</definedName>
+    <definedName name="a_pT">'Model params'!$H$7</definedName>
+    <definedName name="a_pv">'Model params'!$H$6</definedName>
+    <definedName name="a_T">'Model params'!$H$5</definedName>
+    <definedName name="a_T_2">'Model params'!$H$11</definedName>
+    <definedName name="a_v">'Model params'!$H$4</definedName>
+    <definedName name="a_v_2">'Model params'!$H$10</definedName>
+    <definedName name="a_vT">'Model params'!$H$8</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>Speed (mm/s)</t>
   </si>
@@ -36,11 +49,101 @@
   <si>
     <t>#</t>
   </si>
+  <si>
+    <t>T_0 (°C)</t>
+  </si>
+  <si>
+    <t>Norm Speed</t>
+  </si>
+  <si>
+    <t>V min</t>
+  </si>
+  <si>
+    <t>V max</t>
+  </si>
+  <si>
+    <t>V center</t>
+  </si>
+  <si>
+    <t>P min</t>
+  </si>
+  <si>
+    <t>P max</t>
+  </si>
+  <si>
+    <t>V range</t>
+  </si>
+  <si>
+    <t>P center</t>
+  </si>
+  <si>
+    <t>P range</t>
+  </si>
+  <si>
+    <t>Norm Power</t>
+  </si>
+  <si>
+    <t>Norm T_0</t>
+  </si>
+  <si>
+    <t>T min</t>
+  </si>
+  <si>
+    <t>T max</t>
+  </si>
+  <si>
+    <t>T center</t>
+  </si>
+  <si>
+    <t>T range</t>
+  </si>
+  <si>
+    <t>a_c</t>
+  </si>
+  <si>
+    <t>a_p</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>a_v</t>
+  </si>
+  <si>
+    <t>a_T</t>
+  </si>
+  <si>
+    <t>a_pv</t>
+  </si>
+  <si>
+    <t>a_pT</t>
+  </si>
+  <si>
+    <t>a_vT</t>
+  </si>
+  <si>
+    <t>a_p^2</t>
+  </si>
+  <si>
+    <t>a_v^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_T^2          </t>
+  </si>
+  <si>
+    <t>Surface Area</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="173" formatCode="0.00000000000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,15 +192,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,19 +522,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="E1" sqref="E1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" customWidth="1"/>
     <col min="2" max="3" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +551,23 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1300</v>
       </c>
@@ -441,8 +580,27 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <f>(A2 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G2">
+        <f>(B2 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>-3</v>
+      </c>
+      <c r="H2">
+        <f>(E2 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> a_c + a_p * G2 + a_v * F2 + a_T * H2 + a_pv * G2 * F2 + a_pT * G2 * H2 + a_vT * F2 * H2 + a_p^2 * G2^2 + a_v^2 * F2^2 + a_T^2 * H2^2</f>
+        <v>-5.1608780330200882E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>633.33333333333326</v>
       </c>
@@ -455,8 +613,27 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <f>(A3 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.8222222222222223</v>
+      </c>
+      <c r="G3">
+        <f>(B3 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>-3</v>
+      </c>
+      <c r="H3">
+        <f>(E3 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> a_c + a_p * G3 + a_v * F3 + a_T * H3 + a_pv * G3 * F3 + a_pT * G3 * H3 + a_vT * F3 * H3 + a_p^2 * G3^2 + a_v^2 * F3^2 + a_T^2 * H3^2</f>
+        <v>-1.0040627554039444E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>300</v>
       </c>
@@ -469,8 +646,27 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <f>(A4 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.2666666666666666</v>
+      </c>
+      <c r="G4">
+        <f>(B4 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>-3</v>
+      </c>
+      <c r="H4">
+        <f>(E4 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <f xml:space="preserve"> a_c + a_p * G4 + a_v * F4 + a_T * H4 + a_pv * G4 * F4 + a_pT * G4 * H4 + a_vT * F4 * H4 + a_p^2 * G4^2 + a_v^2 * F4^2 + a_T^2 * H4^2</f>
+        <v>-1.2446866609109035E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1466.666666666667</v>
       </c>
@@ -483,8 +679,27 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <f>(A5 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.28888888888888931</v>
+      </c>
+      <c r="G5">
+        <f>(B5 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H5">
+        <f>(E5 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <f xml:space="preserve"> a_c + a_p * G5 + a_v * F5 + a_T * H5 + a_pv * G5 * F5 + a_pT * G5 * H5 + a_vT * F5 * H5 + a_p^2 * G5^2 + a_v^2 * F5^2 + a_T^2 * H5^2</f>
+        <v>7.2904443118485766E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>800</v>
       </c>
@@ -497,8 +712,27 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <f>(A6 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="G6">
+        <f>(B6 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H6">
+        <f>(E6 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <f xml:space="preserve"> a_c + a_p * G6 + a_v * F6 + a_T * H6 + a_pv * G6 * F6 + a_pT * G6 * H6 + a_vT * F6 * H6 + a_p^2 * G6^2 + a_v^2 * F6^2 + a_T^2 * H6^2</f>
+        <v>1.1901332807564622E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>300</v>
       </c>
@@ -511,8 +745,27 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <f>(A7 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.2666666666666666</v>
+      </c>
+      <c r="G7">
+        <f>(B7 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H7">
+        <f>(E7 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <f xml:space="preserve"> a_c + a_p * G7 + a_v * F7 + a_T * H7 + a_pv * G7 * F7 + a_pT * G7 * H7 + a_vT * F7 * H7 + a_p^2 * G7^2 + a_v^2 * F7^2 + a_T^2 * H7^2</f>
+        <v>1.5418361663871807E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1466.666666666667</v>
       </c>
@@ -525,8 +778,27 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <f>(A8 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.28888888888888931</v>
+      </c>
+      <c r="G8">
+        <f>(B8 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H8">
+        <f>(E8 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <f xml:space="preserve"> a_c + a_p * G8 + a_v * F8 + a_T * H8 + a_pv * G8 * F8 + a_pT * G8 * H8 + a_vT * F8 * H8 + a_p^2 * G8^2 + a_v^2 * F8^2 + a_T^2 * H8^2</f>
+        <v>9.584946323122942E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>966.66666666666663</v>
       </c>
@@ -539,8 +811,27 @@
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <f>(A9 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.37777777777777782</v>
+      </c>
+      <c r="G9">
+        <f>(B9 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H9">
+        <f>(E9 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <f xml:space="preserve"> a_c + a_p * G9 + a_v * F9 + a_T * H9 + a_pv * G9 * F9 + a_pT * G9 * H9 + a_vT * F9 * H9 + a_p^2 * G9^2 + a_v^2 * F9^2 + a_T^2 * H9^2</f>
+        <v>1.4331939471326617E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>466.66666666666657</v>
       </c>
@@ -553,8 +844,27 @@
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <f>(A10 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0444444444444447</v>
+      </c>
+      <c r="G10">
+        <f>(B10 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H10">
+        <f>(E10 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <f xml:space="preserve"> a_c + a_p * G10 + a_v * F10 + a_T * H10 + a_pv * G10 * F10 + a_pT * G10 * H10 + a_vT * F10 * H10 + a_p^2 * G10^2 + a_v^2 * F10^2 + a_T^2 * H10^2</f>
+        <v>1.9129386177690416E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1633.333333333333</v>
       </c>
@@ -567,8 +877,27 @@
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <f>(A11 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.51111111111111074</v>
+      </c>
+      <c r="G11">
+        <f>(B11 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f>(E11 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <f xml:space="preserve"> a_c + a_p * G11 + a_v * F11 + a_T * H11 + a_pv * G11 * F11 + a_pT * G11 * H11 + a_vT * F11 * H11 + a_p^2 * G11^2 + a_v^2 * F11^2 + a_T^2 * H11^2</f>
+        <v>9.9543727250258063E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1133.333333333333</v>
       </c>
@@ -581,8 +910,27 @@
       <c r="D12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <f>(A12 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.15555555555555595</v>
+      </c>
+      <c r="G12">
+        <f>(B12 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f>(E12 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <f xml:space="preserve"> a_c + a_p * G12 + a_v * F12 + a_T * H12 + a_pv * G12 * F12 + a_pT * G12 * H12 + a_vT * F12 * H12 + a_p^2 * G12^2 + a_v^2 * F12^2 + a_T^2 * H12^2</f>
+        <v>1.5981783723286094E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>466.66666666666657</v>
       </c>
@@ -595,8 +943,27 @@
       <c r="D13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <f>(A13 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0444444444444447</v>
+      </c>
+      <c r="G13">
+        <f>(B13 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>(E13 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <f xml:space="preserve"> a_c + a_p * G13 + a_v * F13 + a_T * H13 + a_pv * G13 * F13 + a_pT * G13 * H13 + a_vT * F13 * H13 + a_p^2 * G13^2 + a_v^2 * F13^2 + a_T^2 * H13^2</f>
+        <v>2.4096815033659989E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>300</v>
       </c>
@@ -610,8 +977,27 @@
       <c r="D14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <f>(A14 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.2666666666666666</v>
+      </c>
+      <c r="G14">
+        <f>(B14 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <f>(E14 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <f xml:space="preserve"> a_c + a_p * G14 + a_v * F14 + a_T * H14 + a_pv * G14 * F14 + a_pT * G14 * H14 + a_vT * F14 * H14 + a_p^2 * G14^2 + a_v^2 * F14^2 + a_T^2 * H14^2</f>
+        <v>3.4386452822253971E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>415.78947368421052</v>
       </c>
@@ -625,8 +1011,27 @@
       <c r="D15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <f>(A15 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.1122807017543859</v>
+      </c>
+      <c r="G15">
+        <f>(B15 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f>(E15 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <f xml:space="preserve"> a_c + a_p * G15 + a_v * F15 + a_T * H15 + a_pv * G15 * F15 + a_pT * G15 * H15 + a_vT * F15 * H15 + a_p^2 * G15^2 + a_v^2 * F15^2 + a_T^2 * H15^2</f>
+        <v>3.2516050198132557E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>531.57894736842104</v>
       </c>
@@ -640,8 +1045,27 @@
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <f>(A16 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.95789473684210524</v>
+      </c>
+      <c r="G16">
+        <f>(B16 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <f>(E16 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <f xml:space="preserve"> a_c + a_p * G16 + a_v * F16 + a_T * H16 + a_pv * G16 * F16 + a_pT * G16 * H16 + a_vT * F16 * H16 + a_p^2 * G16^2 + a_v^2 * F16^2 + a_T^2 * H16^2</f>
+        <v>3.0648353338238225E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>647.36842105263156</v>
       </c>
@@ -655,8 +1079,27 @@
       <c r="D17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <f>(A17 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.80350877192982462</v>
+      </c>
+      <c r="G17">
+        <f>(B17 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f>(E17 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <f xml:space="preserve"> a_c + a_p * G17 + a_v * F17 + a_T * H17 + a_pv * G17 * F17 + a_pT * G17 * H17 + a_vT * F17 * H17 + a_p^2 * G17^2 + a_v^2 * F17^2 + a_T^2 * H17^2</f>
+        <v>2.8783362242570991E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>763.15789473684208</v>
       </c>
@@ -670,8 +1113,27 @@
       <c r="D18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <f>(A18 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.64912280701754388</v>
+      </c>
+      <c r="G18">
+        <f>(B18 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <f>(E18 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <f xml:space="preserve"> a_c + a_p * G18 + a_v * F18 + a_T * H18 + a_pv * G18 * F18 + a_pT * G18 * H18 + a_vT * F18 * H18 + a_p^2 * G18^2 + a_v^2 * F18^2 + a_T^2 * H18^2</f>
+        <v>2.692107691113085E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>878.9473684210526</v>
       </c>
@@ -685,8 +1147,27 @@
       <c r="D19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <f>(A19 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.4947368421052632</v>
+      </c>
+      <c r="G19">
+        <f>(B19 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f>(E19 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I19">
+        <f xml:space="preserve"> a_c + a_p * G19 + a_v * F19 + a_T * H19 + a_pv * G19 * F19 + a_pT * G19 * H19 + a_vT * F19 * H19 + a_p^2 * G19^2 + a_v^2 * F19^2 + a_T^2 * H19^2</f>
+        <v>2.5061497343917792E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>994.73684210526312</v>
       </c>
@@ -700,8 +1181,27 @@
       <c r="D20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <f>(A20 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.34035087719298251</v>
+      </c>
+      <c r="G20">
+        <f>(B20 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f>(E20 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <f xml:space="preserve"> a_c + a_p * G20 + a_v * F20 + a_T * H20 + a_pv * G20 * F20 + a_pT * G20 * H20 + a_vT * F20 * H20 + a_p^2 * G20^2 + a_v^2 * F20^2 + a_T^2 * H20^2</f>
+        <v>2.3204623540931835E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1110.526315789474</v>
       </c>
@@ -715,8 +1215,27 @@
       <c r="D21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <f>(A21 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.18596491228070136</v>
+      </c>
+      <c r="G21">
+        <f>(B21 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f>(E21 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <f xml:space="preserve"> a_c + a_p * G21 + a_v * F21 + a_T * H21 + a_pv * G21 * F21 + a_pT * G21 * H21 + a_vT * F21 * H21 + a_p^2 * G21^2 + a_v^2 * F21^2 + a_T^2 * H21^2</f>
+        <v>2.1350455502172953E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1226.3157894736839</v>
       </c>
@@ -730,8 +1249,27 @@
       <c r="D22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <f>(A22 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-3.1578947368421421E-2</v>
+      </c>
+      <c r="G22">
+        <f>(B22 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <f>(E22 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I22">
+        <f xml:space="preserve"> a_c + a_p * G22 + a_v * F22 + a_T * H22 + a_pv * G22 * F22 + a_pT * G22 * H22 + a_vT * F22 * H22 + a_p^2 * G22^2 + a_v^2 * F22^2 + a_T^2 * H22^2</f>
+        <v>1.9498993227641179E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1342.105263157895</v>
       </c>
@@ -745,8 +1283,27 @@
       <c r="D23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <f>(A23 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.12280701754386003</v>
+      </c>
+      <c r="G23">
+        <f>(B23 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <f>(E23 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I23">
+        <f xml:space="preserve"> a_c + a_p * G23 + a_v * F23 + a_T * H23 + a_pv * G23 * F23 + a_pT * G23 * H23 + a_vT * F23 * H23 + a_p^2 * G23^2 + a_v^2 * F23^2 + a_T^2 * H23^2</f>
+        <v>1.7650236717336489E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1457.894736842105</v>
       </c>
@@ -760,8 +1317,27 @@
       <c r="D24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <f>(A24 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.27719298245613999</v>
+      </c>
+      <c r="G24">
+        <f>(B24 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <f>(E24 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <f xml:space="preserve"> a_c + a_p * G24 + a_v * F24 + a_T * H24 + a_pv * G24 * F24 + a_pT * G24 * H24 + a_vT * F24 * H24 + a_p^2 * G24^2 + a_v^2 * F24^2 + a_T^2 * H24^2</f>
+        <v>1.5804185971258898E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1573.6842105263161</v>
       </c>
@@ -775,8 +1351,27 @@
       <c r="D25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <f>(A25 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.4315789473684214</v>
+      </c>
+      <c r="G25">
+        <f>(B25 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <f>(E25 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <f xml:space="preserve"> a_c + a_p * G25 + a_v * F25 + a_T * H25 + a_pv * G25 * F25 + a_pT * G25 * H25 + a_vT * F25 * H25 + a_p^2 * G25^2 + a_v^2 * F25^2 + a_T^2 * H25^2</f>
+        <v>1.3960840989408385E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1689.473684210526</v>
       </c>
@@ -790,8 +1385,27 @@
       <c r="D26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <f>(A26 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.58596491228070136</v>
+      </c>
+      <c r="G26">
+        <f>(B26 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f>(E26 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I26">
+        <f xml:space="preserve"> a_c + a_p * G26 + a_v * F26 + a_T * H26 + a_pv * G26 * F26 + a_pT * G26 * H26 + a_vT * F26 * H26 + a_p^2 * G26^2 + a_v^2 * F26^2 + a_T^2 * H26^2</f>
+        <v>1.2120201771784982E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1805.2631578947371</v>
       </c>
@@ -805,8 +1419,27 @@
       <c r="D27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <f>(A27 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.74035087719298276</v>
+      </c>
+      <c r="G27">
+        <f>(B27 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f>(E27 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <f xml:space="preserve"> a_c + a_p * G27 + a_v * F27 + a_T * H27 + a_pv * G27 * F27 + a_pT * G27 * H27 + a_vT * F27 * H27 + a_p^2 * G27^2 + a_v^2 * F27^2 + a_T^2 * H27^2</f>
+        <v>1.0282268318388655E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1921.0526315789471</v>
       </c>
@@ -820,8 +1453,27 @@
       <c r="D28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <f>(A28 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.89473684210526272</v>
+      </c>
+      <c r="G28">
+        <f>(B28 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <f>(E28 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <f xml:space="preserve"> a_c + a_p * G28 + a_v * F28 + a_T * H28 + a_pv * G28 * F28 + a_pT * G28 * H28 + a_vT * F28 * H28 + a_p^2 * G28^2 + a_v^2 * F28^2 + a_T^2 * H28^2</f>
+        <v>8.4470406292194329E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2036.8421052631579</v>
       </c>
@@ -835,8 +1487,27 @@
       <c r="D29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <f>(A29 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>1.0491228070175438</v>
+      </c>
+      <c r="G29">
+        <f>(B29 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <f>(E29 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <f xml:space="preserve"> a_c + a_p * G29 + a_v * F29 + a_T * H29 + a_pv * G29 * F29 + a_pT * G29 * H29 + a_vT * F29 * H29 + a_p^2 * G29^2 + a_v^2 * F29^2 + a_T^2 * H29^2</f>
+        <v>6.6145187042772891E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2152.6315789473679</v>
       </c>
@@ -850,8 +1521,27 @@
       <c r="D30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <f>(A30 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>1.2035087719298239</v>
+      </c>
+      <c r="G30">
+        <f>(B30 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <f>(E30 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <f xml:space="preserve"> a_c + a_p * G30 + a_v * F30 + a_T * H30 + a_pv * G30 * F30 + a_pT * G30 * H30 + a_vT * F30 * H30 + a_p^2 * G30^2 + a_v^2 * F30^2 + a_T^2 * H30^2</f>
+        <v>4.7847025435622447E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2268.4210526315792</v>
       </c>
@@ -865,8 +1555,27 @@
       <c r="D31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <f>(A31 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>1.3578947368421055</v>
+      </c>
+      <c r="G31">
+        <f>(B31 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <f>(E31 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <f xml:space="preserve"> a_c + a_p * G31 + a_v * F31 + a_T * H31 + a_pv * G31 * F31 + a_pT * G31 * H31 + a_vT * F31 * H31 + a_p^2 * G31^2 + a_v^2 * F31^2 + a_T^2 * H31^2</f>
+        <v>2.9575921470742809E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2384.2105263157891</v>
       </c>
@@ -880,8 +1589,27 @@
       <c r="D32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>27</v>
+      </c>
+      <c r="F32">
+        <f>(A32 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>1.5122807017543856</v>
+      </c>
+      <c r="G32">
+        <f>(B32 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <f>(E32 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I32">
+        <f xml:space="preserve"> a_c + a_p * G32 + a_v * F32 + a_T * H32 + a_pv * G32 * F32 + a_pT * G32 * H32 + a_vT * F32 * H32 + a_p^2 * G32^2 + a_v^2 * F32^2 + a_T^2 * H32^2</f>
+        <v>1.1331875148134212E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2500</v>
       </c>
@@ -894,6 +1622,25 @@
       </c>
       <c r="D33">
         <v>32</v>
+      </c>
+      <c r="E33">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <f>(A33 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G33">
+        <f>(B33 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <f>(E33 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <f xml:space="preserve"> a_c + a_p * G33 + a_v * F33 + a_T * H33 + a_pv * G33 * F33 + a_pT * G33 * H33 + a_vT * F33 * H33 + a_p^2 * G33^2 + a_v^2 * F33^2 + a_T^2 * H33^2</f>
+        <v>-6.8851135322035178E-4</v>
       </c>
     </row>
   </sheetData>
@@ -903,18 +1650,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,8 +1679,23 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>966.66666666666663</v>
       </c>
@@ -941,8 +1708,27 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <f>(A2 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.37777777777777782</v>
+      </c>
+      <c r="G2">
+        <f>(B2 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H2">
+        <f>(E2 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> a_c + a_p * G2 + a_v * F2 + a_T * H2 + a_pv * G2 * F2 + a_pT * G2 * H2 + a_vT * F2 * H2 + a_p^2 * G2^2 + a_v^2 * F2^2 + a_T^2 * H2^2</f>
+        <v>1.4331939471326617E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1633.333333333333</v>
       </c>
@@ -955,8 +1741,27 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <f>(A3 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.51111111111111074</v>
+      </c>
+      <c r="G3">
+        <f>(B3 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H3">
+        <f>(E3 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> a_c + a_p * G3 + a_v * F3 + a_T * H3 + a_pv * G3 * F3 + a_pT * G3 * H3 + a_vT * F3 * H3 + a_p^2 * G3^2 + a_v^2 * F3^2 + a_T^2 * H3^2</f>
+        <v>8.0138271755350841E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1466.666666666667</v>
       </c>
@@ -969,8 +1774,27 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <f>(A4 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.28888888888888931</v>
+      </c>
+      <c r="G4">
+        <f>(B4 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>(E4 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <f xml:space="preserve"> a_c + a_p * G4 + a_v * F4 + a_T * H4 + a_pv * G4 * F4 + a_pT * G4 * H4 + a_vT * F4 * H4 + a_p^2 * G4^2 + a_v^2 * F4^2 + a_T^2 * H4^2</f>
+        <v>1.1957903773539214E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>633.33333333333326</v>
       </c>
@@ -983,8 +1807,27 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <f>(A5 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.8222222222222223</v>
+      </c>
+      <c r="G5">
+        <f>(B5 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f>(E5 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <f xml:space="preserve"> a_c + a_p * G5 + a_v * F5 + a_T * H5 + a_pv * G5 * F5 + a_pT * G5 * H5 + a_vT * F5 * H5 + a_p^2 * G5^2 + a_v^2 * F5^2 + a_T^2 * H5^2</f>
+        <v>2.2059648279706488E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1800</v>
       </c>
@@ -997,8 +1840,27 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <f>(A6 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="G6">
+        <f>(B6 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>(E6 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <f xml:space="preserve"> a_c + a_p * G6 + a_v * F6 + a_T * H6 + a_pv * G6 * F6 + a_pT * G6 * H6 + a_vT * F6 * H6 + a_p^2 * G6^2 + a_v^2 * F6^2 + a_T^2 * H6^2</f>
+        <v>7.9564476274190752E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1133.333333333333</v>
       </c>
@@ -1011,8 +1873,27 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <f>(A7 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.15555555555555595</v>
+      </c>
+      <c r="G7">
+        <f>(B7 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>(E7 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <f xml:space="preserve"> a_c + a_p * G7 + a_v * F7 + a_T * H7 + a_pv * G7 * F7 + a_pT * G7 * H7 + a_vT * F7 * H7 + a_p^2 * G7^2 + a_v^2 * F7^2 + a_T^2 * H7^2</f>
+        <v>6.5038062839097013E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>800</v>
       </c>
@@ -1025,8 +1906,27 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <f>(A8 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="G8">
+        <f>(B8 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f>(E8 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <f xml:space="preserve"> a_c + a_p * G8 + a_v * F8 + a_T * H8 + a_pv * G8 * F8 + a_pT * G8 * H8 + a_vT * F8 * H8 + a_p^2 * G8^2 + a_v^2 * F8^2 + a_T^2 * H8^2</f>
+        <v>2.002808747665968E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1300</v>
       </c>
@@ -1039,8 +1939,27 @@
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <f>(A9 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G9">
+        <f>(B9 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H9">
+        <f>(E9 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <f xml:space="preserve"> a_c + a_p * G9 + a_v * F9 + a_T * H9 + a_pv * G9 * F9 + a_pT * G9 * H9 + a_vT * F9 * H9 + a_p^2 * G9^2 + a_v^2 * F9^2 + a_T^2 * H9^2</f>
+        <v>8.4347575094175665E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1300</v>
       </c>
@@ -1053,8 +1972,27 @@
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <f>(A10 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G10">
+        <f>(B10 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>(E10 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <f xml:space="preserve"> a_c + a_p * G10 + a_v * F10 + a_T * H10 + a_pv * G10 * F10 + a_pT * G10 * H10 + a_vT * F10 * H10 + a_p^2 * G10^2 + a_v^2 * F10^2 + a_T^2 * H10^2</f>
+        <v>5.7862990363595785E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>633.33333333333326</v>
       </c>
@@ -1067,8 +2005,27 @@
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <f>(A11 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.8222222222222223</v>
+      </c>
+      <c r="G11">
+        <f>(B11 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H11">
+        <f>(E11 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <f xml:space="preserve"> a_c + a_p * G11 + a_v * F11 + a_T * H11 + a_pv * G11 * F11 + a_pT * G11 * H11 + a_vT * F11 * H11 + a_p^2 * G11^2 + a_v^2 * F11^2 + a_T^2 * H11^2</f>
+        <v>1.3068069808760336E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>633.33333333333326</v>
       </c>
@@ -1081,8 +2038,27 @@
       <c r="D12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <f>(A12 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.8222222222222223</v>
+      </c>
+      <c r="G12">
+        <f>(B12 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>(E12 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <f xml:space="preserve"> a_c + a_p * G12 + a_v * F12 + a_T * H12 + a_pv * G12 * F12 + a_pT * G12 * H12 + a_vT * F12 * H12 + a_p^2 * G12^2 + a_v^2 * F12^2 + a_T^2 * H12^2</f>
+        <v>8.6899637320001465E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>966.66666666666663</v>
       </c>
@@ -1095,8 +2071,27 @@
       <c r="D13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <f>(A13 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.37777777777777782</v>
+      </c>
+      <c r="G13">
+        <f>(B13 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>(E13 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <f xml:space="preserve"> a_c + a_p * G13 + a_v * F13 + a_T * H13 + a_pv * G13 * F13 + a_pT * G13 * H13 + a_vT * F13 * H13 + a_p^2 * G13^2 + a_v^2 * F13^2 + a_T^2 * H13^2</f>
+        <v>1.8002132624519537E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1133.333333333333</v>
       </c>
@@ -1109,8 +2104,27 @@
       <c r="D14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <f>(A14 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.15555555555555595</v>
+      </c>
+      <c r="G14">
+        <f>(B14 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H14">
+        <f>(E14 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <f xml:space="preserve"> a_c + a_p * G14 + a_v * F14 + a_T * H14 + a_pv * G14 * F14 + a_pT * G14 * H14 + a_vT * F14 * H14 + a_p^2 * G14^2 + a_v^2 * F14^2 + a_T^2 * H14^2</f>
+        <v>1.2744002471018718E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1466.666666666667</v>
       </c>
@@ -1123,8 +2137,27 @@
       <c r="D15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <f>(A15 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.28888888888888931</v>
+      </c>
+      <c r="G15">
+        <f>(B15 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H15">
+        <f>(E15 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <f xml:space="preserve"> a_c + a_p * G15 + a_v * F15 + a_T * H15 + a_pv * G15 * F15 + a_pT * G15 * H15 + a_vT * F15 * H15 + a_p^2 * G15^2 + a_v^2 * F15^2 + a_T^2 * H15^2</f>
+        <v>7.2904443118485766E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>466.66666666666657</v>
       </c>
@@ -1137,8 +2170,27 @@
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <f>(A16 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0444444444444447</v>
+      </c>
+      <c r="G16">
+        <f>(B16 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H16">
+        <f>(E16 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <f xml:space="preserve"> a_c + a_p * G16 + a_v * F16 + a_T * H16 + a_pv * G16 * F16 + a_pT * G16 * H16 + a_vT * F16 * H16 + a_p^2 * G16^2 + a_v^2 * F16^2 + a_T^2 * H16^2</f>
+        <v>1.4240412760862737E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1633.333333333333</v>
       </c>
@@ -1151,8 +2203,27 @@
       <c r="D17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <f>(A17 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.51111111111111074</v>
+      </c>
+      <c r="G17">
+        <f>(B17 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f>(E17 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <f xml:space="preserve"> a_c + a_p * G17 + a_v * F17 + a_T * H17 + a_pv * G17 * F17 + a_pT * G17 * H17 + a_vT * F17 * H17 + a_p^2 * G17^2 + a_v^2 * F17^2 + a_T^2 * H17^2</f>
+        <v>9.9543727250258063E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>466.66666666666657</v>
       </c>
@@ -1165,8 +2236,27 @@
       <c r="D18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <f>(A18 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0444444444444447</v>
+      </c>
+      <c r="G18">
+        <f>(B18 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H18">
+        <f>(E18 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <f xml:space="preserve"> a_c + a_p * G18 + a_v * F18 + a_T * H18 + a_pv * G18 * F18 + a_pT * G18 * H18 + a_vT * F18 * H18 + a_p^2 * G18^2 + a_v^2 * F18^2 + a_T^2 * H18^2</f>
+        <v>1.9129386177690416E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1133.333333333333</v>
       </c>
@@ -1179,8 +2269,27 @@
       <c r="D19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <f>(A19 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.15555555555555595</v>
+      </c>
+      <c r="G19">
+        <f>(B19 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <f>(E19 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I19">
+        <f xml:space="preserve"> a_c + a_p * G19 + a_v * F19 + a_T * H19 + a_pv * G19 * F19 + a_pT * G19 * H19 + a_vT * F19 * H19 + a_p^2 * G19^2 + a_v^2 * F19^2 + a_T^2 * H19^2</f>
+        <v>1.5981783723286094E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>800</v>
       </c>
@@ -1193,8 +2302,27 @@
       <c r="D20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <f>(A20 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="G20">
+        <f>(B20 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>(E20 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <f xml:space="preserve"> a_c + a_p * G20 + a_v * F20 + a_T * H20 + a_pv * G20 * F20 + a_pT * G20 * H20 + a_vT * F20 * H20 + a_p^2 * G20^2 + a_v^2 * F20^2 + a_T^2 * H20^2</f>
+        <v>7.9556386317299835E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>300</v>
       </c>
@@ -1207,8 +2335,27 @@
       <c r="D21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <f>(A21 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.2666666666666666</v>
+      </c>
+      <c r="G21">
+        <f>(B21 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>(E21 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <f xml:space="preserve"> a_c + a_p * G21 + a_v * F21 + a_T * H21 + a_pv * G21 * F21 + a_pT * G21 * H21 + a_vT * F21 * H21 + a_p^2 * G21^2 + a_v^2 * F21^2 + a_T^2 * H21^2</f>
+        <v>1.0175431785260512E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>466.66666666666657</v>
       </c>
@@ -1221,8 +2368,27 @@
       <c r="D22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <f>(A22 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0444444444444447</v>
+      </c>
+      <c r="G22">
+        <f>(B22 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>(E22 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I22">
+        <f xml:space="preserve"> a_c + a_p * G22 + a_v * F22 + a_T * H22 + a_pv * G22 * F22 + a_pT * G22 * H22 + a_vT * F22 * H22 + a_p^2 * G22^2 + a_v^2 * F22^2 + a_T^2 * H22^2</f>
+        <v>9.4298947831769897E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1300</v>
       </c>
@@ -1235,8 +2401,27 @@
       <c r="D23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <f>(A23 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G23">
+        <f>(B23 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H23">
+        <f>(E23 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I23">
+        <f xml:space="preserve"> a_c + a_p * G23 + a_v * F23 + a_T * H23 + a_pv * G23 * F23 + a_pT * G23 * H23 + a_vT * F23 * H23 + a_p^2 * G23^2 + a_v^2 * F23^2 + a_T^2 * H23^2</f>
+        <v>1.1161671421617487E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1133.333333333333</v>
       </c>
@@ -1249,8 +2434,27 @@
       <c r="D24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <f>(A24 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.15555555555555595</v>
+      </c>
+      <c r="G24">
+        <f>(B24 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H24">
+        <f>(E24 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <f xml:space="preserve"> a_c + a_p * G24 + a_v * F24 + a_T * H24 + a_pv * G24 * F24 + a_pT * G24 * H24 + a_vT * F24 * H24 + a_p^2 * G24^2 + a_v^2 * F24^2 + a_T^2 * H24^2</f>
+        <v>9.5846766578932419E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1300</v>
       </c>
@@ -1263,8 +2467,27 @@
       <c r="D25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <f>(A25 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G25">
+        <f>(B25 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <f>(E25 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <f xml:space="preserve"> a_c + a_p * G25 + a_v * F25 + a_T * H25 + a_pv * G25 * F25 + a_pT * G25 * H25 + a_vT * F25 * H25 + a_p^2 * G25^2 + a_v^2 * F25^2 + a_T^2 * H25^2</f>
+        <v>1.3967040772959309E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>800</v>
       </c>
@@ -1277,8 +2500,27 @@
       <c r="D26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <f>(A26 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="G26">
+        <f>(B26 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H26">
+        <f>(E26 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I26">
+        <f xml:space="preserve"> a_c + a_p * G26 + a_v * F26 + a_T * H26 + a_pv * G26 * F26 + a_pT * G26 * H26 + a_vT * F26 * H26 + a_p^2 * G26^2 + a_v^2 * F26^2 + a_T^2 * H26^2</f>
+        <v>1.5925482422541205E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>966.66666666666663</v>
       </c>
@@ -1291,8 +2533,27 @@
       <c r="D27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <f>(A27 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.37777777777777782</v>
+      </c>
+      <c r="G27">
+        <f>(B27 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H27">
+        <f>(E27 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <f xml:space="preserve"> a_c + a_p * G27 + a_v * F27 + a_T * H27 + a_pv * G27 * F27 + a_pT * G27 * H27 + a_vT * F27 * H27 + a_p^2 * G27^2 + a_v^2 * F27^2 + a_T^2 * H27^2</f>
+        <v>1.0740201757275591E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>966.66666666666663</v>
       </c>
@@ -1305,8 +2566,27 @@
       <c r="D28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <f>(A28 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.37777777777777782</v>
+      </c>
+      <c r="G28">
+        <f>(B28 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>(E28 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <f xml:space="preserve"> a_c + a_p * G28 + a_v * F28 + a_T * H28 + a_pv * G28 * F28 + a_pT * G28 * H28 + a_vT * F28 * H28 + a_p^2 * G28^2 + a_v^2 * F28^2 + a_T^2 * H28^2</f>
+        <v>7.2269194823665018E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>300</v>
       </c>
@@ -1319,8 +2599,27 @@
       <c r="D29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <f>(A29 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.2666666666666666</v>
+      </c>
+      <c r="G29">
+        <f>(B29 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H29">
+        <f>(E29 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <f xml:space="preserve"> a_c + a_p * G29 + a_v * F29 + a_T * H29 + a_pv * G29 * F29 + a_pT * G29 * H29 + a_vT * F29 * H29 + a_p^2 * G29^2 + a_v^2 * F29^2 + a_T^2 * H29^2</f>
+        <v>1.5418361663871807E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>633.33333333333326</v>
       </c>
@@ -1333,8 +2632,27 @@
       <c r="D30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <f>(A30 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.8222222222222223</v>
+      </c>
+      <c r="G30">
+        <f>(B30 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H30">
+        <f>(E30 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <f xml:space="preserve"> a_c + a_p * G30 + a_v * F30 + a_T * H30 + a_pv * G30 * F30 + a_pT * G30 * H30 + a_vT * F30 * H30 + a_p^2 * G30^2 + a_v^2 * F30^2 + a_T^2 * H30^2</f>
+        <v>1.7524631324662469E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1466.666666666667</v>
       </c>
@@ -1347,8 +2665,27 @@
       <c r="D31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <f>(A31 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.28888888888888931</v>
+      </c>
+      <c r="G31">
+        <f>(B31 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H31">
+        <f>(E31 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <f xml:space="preserve"> a_c + a_p * G31 + a_v * F31 + a_T * H31 + a_pv * G31 * F31 + a_pT * G31 * H31 + a_vT * F31 * H31 + a_p^2 * G31^2 + a_v^2 * F31^2 + a_T^2 * H31^2</f>
+        <v>9.584946323122942E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>466.66666666666657</v>
       </c>
@@ -1361,8 +2698,27 @@
       <c r="D32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>27</v>
+      </c>
+      <c r="F32">
+        <f>(A32 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0444444444444447</v>
+      </c>
+      <c r="G32">
+        <f>(B32 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <f>(E32 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I32">
+        <f xml:space="preserve"> a_c + a_p * G32 + a_v * F32 + a_T * H32 + a_pv * G32 * F32 + a_pT * G32 * H32 + a_vT * F32 * H32 + a_p^2 * G32^2 + a_v^2 * F32^2 + a_T^2 * H32^2</f>
+        <v>2.4096815033659989E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>800</v>
       </c>
@@ -1374,6 +2730,25 @@
       </c>
       <c r="D33">
         <v>32</v>
+      </c>
+      <c r="E33">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <f>(A33 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="G33">
+        <f>(B33 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H33">
+        <f>(E33 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <f xml:space="preserve"> a_c + a_p * G33 + a_v * F33 + a_T * H33 + a_pv * G33 * F33 + a_pT * G33 * H33 + a_vT * F33 * H33 + a_p^2 * G33^2 + a_v^2 * F33^2 + a_T^2 * H33^2</f>
+        <v>1.1901332807564622E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1383,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="I2" sqref="I2:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,9 +2769,13 @@
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,8 +2788,23 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1300</v>
       </c>
@@ -1423,8 +2817,27 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <f>(A2 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G2">
+        <f>(B2 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>-3</v>
+      </c>
+      <c r="H2">
+        <f>(E2 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> a_c + a_p * G2 + a_v * F2 + a_T * H2 + a_pv * G2 * F2 + a_pT * G2 * H2 + a_vT * F2 * H2 + a_p^2 * G2^2 + a_v^2 * F2^2 + a_T^2 * H2^2</f>
+        <v>-5.1608780330200882E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>633.33333333333326</v>
       </c>
@@ -1437,8 +2850,27 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <f>(A3 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.8222222222222223</v>
+      </c>
+      <c r="G3">
+        <f>(B3 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>-3</v>
+      </c>
+      <c r="H3">
+        <f>(E3 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> a_c + a_p * G3 + a_v * F3 + a_T * H3 + a_pv * G3 * F3 + a_pT * G3 * H3 + a_vT * F3 * H3 + a_p^2 * G3^2 + a_v^2 * F3^2 + a_T^2 * H3^2</f>
+        <v>-1.0040627554039444E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>300</v>
       </c>
@@ -1451,8 +2883,27 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <f>(A4 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.2666666666666666</v>
+      </c>
+      <c r="G4">
+        <f>(B4 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>-3</v>
+      </c>
+      <c r="H4">
+        <f>(E4 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <f xml:space="preserve"> a_c + a_p * G4 + a_v * F4 + a_T * H4 + a_pv * G4 * F4 + a_pT * G4 * H4 + a_vT * F4 * H4 + a_p^2 * G4^2 + a_v^2 * F4^2 + a_T^2 * H4^2</f>
+        <v>-1.2446866609109035E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1466.666666666667</v>
       </c>
@@ -1465,8 +2916,27 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <f>(A5 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.28888888888888931</v>
+      </c>
+      <c r="G5">
+        <f>(B5 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H5">
+        <f>(E5 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <f xml:space="preserve"> a_c + a_p * G5 + a_v * F5 + a_T * H5 + a_pv * G5 * F5 + a_pT * G5 * H5 + a_vT * F5 * H5 + a_p^2 * G5^2 + a_v^2 * F5^2 + a_T^2 * H5^2</f>
+        <v>7.2904443118485766E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>800</v>
       </c>
@@ -1479,8 +2949,27 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <f>(A6 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="G6">
+        <f>(B6 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H6">
+        <f>(E6 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <f xml:space="preserve"> a_c + a_p * G6 + a_v * F6 + a_T * H6 + a_pv * G6 * F6 + a_pT * G6 * H6 + a_vT * F6 * H6 + a_p^2 * G6^2 + a_v^2 * F6^2 + a_T^2 * H6^2</f>
+        <v>1.1901332807564622E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>300</v>
       </c>
@@ -1493,8 +2982,27 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <f>(A7 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.2666666666666666</v>
+      </c>
+      <c r="G7">
+        <f>(B7 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H7">
+        <f>(E7 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <f xml:space="preserve"> a_c + a_p * G7 + a_v * F7 + a_T * H7 + a_pv * G7 * F7 + a_pT * G7 * H7 + a_vT * F7 * H7 + a_p^2 * G7^2 + a_v^2 * F7^2 + a_T^2 * H7^2</f>
+        <v>1.5418361663871807E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1466.666666666667</v>
       </c>
@@ -1507,8 +3015,27 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <f>(A8 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.28888888888888931</v>
+      </c>
+      <c r="G8">
+        <f>(B8 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H8">
+        <f>(E8 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <f xml:space="preserve"> a_c + a_p * G8 + a_v * F8 + a_T * H8 + a_pv * G8 * F8 + a_pT * G8 * H8 + a_vT * F8 * H8 + a_p^2 * G8^2 + a_v^2 * F8^2 + a_T^2 * H8^2</f>
+        <v>9.584946323122942E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>966.66666666666663</v>
       </c>
@@ -1521,8 +3048,27 @@
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <f>(A9 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.37777777777777782</v>
+      </c>
+      <c r="G9">
+        <f>(B9 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H9">
+        <f>(E9 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <f xml:space="preserve"> a_c + a_p * G9 + a_v * F9 + a_T * H9 + a_pv * G9 * F9 + a_pT * G9 * H9 + a_vT * F9 * H9 + a_p^2 * G9^2 + a_v^2 * F9^2 + a_T^2 * H9^2</f>
+        <v>1.4331939471326617E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>466.66666666666657</v>
       </c>
@@ -1535,8 +3081,27 @@
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <f>(A10 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0444444444444447</v>
+      </c>
+      <c r="G10">
+        <f>(B10 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H10">
+        <f>(E10 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <f xml:space="preserve"> a_c + a_p * G10 + a_v * F10 + a_T * H10 + a_pv * G10 * F10 + a_pT * G10 * H10 + a_vT * F10 * H10 + a_p^2 * G10^2 + a_v^2 * F10^2 + a_T^2 * H10^2</f>
+        <v>1.9129386177690416E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1633.333333333333</v>
       </c>
@@ -1549,8 +3114,27 @@
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <f>(A11 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.51111111111111074</v>
+      </c>
+      <c r="G11">
+        <f>(B11 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f>(E11 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <f xml:space="preserve"> a_c + a_p * G11 + a_v * F11 + a_T * H11 + a_pv * G11 * F11 + a_pT * G11 * H11 + a_vT * F11 * H11 + a_p^2 * G11^2 + a_v^2 * F11^2 + a_T^2 * H11^2</f>
+        <v>9.9543727250258063E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1133.333333333333</v>
       </c>
@@ -1563,8 +3147,27 @@
       <c r="D12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <f>(A12 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.15555555555555595</v>
+      </c>
+      <c r="G12">
+        <f>(B12 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f>(E12 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <f xml:space="preserve"> a_c + a_p * G12 + a_v * F12 + a_T * H12 + a_pv * G12 * F12 + a_pT * G12 * H12 + a_vT * F12 * H12 + a_p^2 * G12^2 + a_v^2 * F12^2 + a_T^2 * H12^2</f>
+        <v>1.5981783723286094E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>466.66666666666657</v>
       </c>
@@ -1577,8 +3180,27 @@
       <c r="D13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <f>(A13 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0444444444444447</v>
+      </c>
+      <c r="G13">
+        <f>(B13 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>(E13 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <f xml:space="preserve"> a_c + a_p * G13 + a_v * F13 + a_T * H13 + a_pv * G13 * F13 + a_pT * G13 * H13 + a_vT * F13 * H13 + a_p^2 * G13^2 + a_v^2 * F13^2 + a_T^2 * H13^2</f>
+        <v>2.4096815033659989E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>100</v>
       </c>
@@ -1592,8 +3214,27 @@
       <c r="D14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <f>(A14 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.5333333333333334</v>
+      </c>
+      <c r="G14">
+        <f>(B14 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H14">
+        <f>(E14 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <f xml:space="preserve"> a_c + a_p * G14 + a_v * F14 + a_T * H14 + a_pv * G14 * F14 + a_pT * G14 * H14 + a_vT * F14 * H14 + a_p^2 * G14^2 + a_v^2 * F14^2 + a_T^2 * H14^2</f>
+        <v>2.4151908363625296E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>189.4736842105263</v>
       </c>
@@ -1607,8 +3248,27 @@
       <c r="D15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <f>(A15 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.4140350877192984</v>
+      </c>
+      <c r="G15">
+        <f>(B15 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H15">
+        <f>(E15 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <f xml:space="preserve"> a_c + a_p * G15 + a_v * F15 + a_T * H15 + a_pv * G15 * F15 + a_pT * G15 * H15 + a_vT * F15 * H15 + a_p^2 * G15^2 + a_v^2 * F15^2 + a_T^2 * H15^2</f>
+        <v>2.3225056298744617E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>278.9473684210526</v>
       </c>
@@ -1622,8 +3282,27 @@
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <f>(A16 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.2947368421052632</v>
+      </c>
+      <c r="G16">
+        <f>(B16 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H16">
+        <f>(E16 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <f xml:space="preserve"> a_c + a_p * G16 + a_v * F16 + a_T * H16 + a_pv * G16 * F16 + a_pT * G16 * H16 + a_vT * F16 * H16 + a_p^2 * G16^2 + a_v^2 * F16^2 + a_T^2 * H16^2</f>
+        <v>2.2299819865809464E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>368.42105263157902</v>
       </c>
@@ -1637,8 +3316,27 @@
       <c r="D17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <f>(A17 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.1754385964912279</v>
+      </c>
+      <c r="G17">
+        <f>(B17 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H17">
+        <f>(E17 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <f xml:space="preserve"> a_c + a_p * G17 + a_v * F17 + a_T * H17 + a_pv * G17 * F17 + a_pT * G17 * H17 + a_vT * F17 * H17 + a_p^2 * G17^2 + a_v^2 * F17^2 + a_T^2 * H17^2</f>
+        <v>2.1376199064819822E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>457.89473684210532</v>
       </c>
@@ -1652,8 +3350,27 @@
       <c r="D18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <f>(A18 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0561403508771929</v>
+      </c>
+      <c r="G18">
+        <f>(B18 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H18">
+        <f>(E18 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <f xml:space="preserve"> a_c + a_p * G18 + a_v * F18 + a_T * H18 + a_pv * G18 * F18 + a_pT * G18 * H18 + a_vT * F18 * H18 + a_p^2 * G18^2 + a_v^2 * F18^2 + a_T^2 * H18^2</f>
+        <v>2.0454193895775689E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>547.36842105263156</v>
       </c>
@@ -1667,8 +3384,27 @@
       <c r="D19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <f>(A19 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.93684210526315792</v>
+      </c>
+      <c r="G19">
+        <f>(B19 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H19">
+        <f>(E19 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I19">
+        <f xml:space="preserve"> a_c + a_p * G19 + a_v * F19 + a_T * H19 + a_pv * G19 * F19 + a_pT * G19 * H19 + a_vT * F19 * H19 + a_p^2 * G19^2 + a_v^2 * F19^2 + a_T^2 * H19^2</f>
+        <v>1.9533804358677079E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>636.84210526315792</v>
       </c>
@@ -1682,8 +3418,27 @@
       <c r="D20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <f>(A20 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.81754385964912279</v>
+      </c>
+      <c r="G20">
+        <f>(B20 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H20">
+        <f>(E20 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <f xml:space="preserve"> a_c + a_p * G20 + a_v * F20 + a_T * H20 + a_pv * G20 * F20 + a_pT * G20 * H20 + a_vT * F20 * H20 + a_p^2 * G20^2 + a_v^2 * F20^2 + a_T^2 * H20^2</f>
+        <v>1.8615030453523983E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>726.31578947368416</v>
       </c>
@@ -1697,8 +3452,27 @@
       <c r="D21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <f>(A21 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.69824561403508778</v>
+      </c>
+      <c r="G21">
+        <f>(B21 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H21">
+        <f>(E21 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <f xml:space="preserve"> a_c + a_p * G21 + a_v * F21 + a_T * H21 + a_pv * G21 * F21 + a_pT * G21 * H21 + a_vT * F21 * H21 + a_p^2 * G21^2 + a_v^2 * F21^2 + a_T^2 * H21^2</f>
+        <v>1.7697872180316404E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>815.78947368421052</v>
       </c>
@@ -1712,8 +3486,27 @@
       <c r="D22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <f>(A22 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.57894736842105265</v>
+      </c>
+      <c r="G22">
+        <f>(B22 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H22">
+        <f>(E22 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I22">
+        <f xml:space="preserve"> a_c + a_p * G22 + a_v * F22 + a_T * H22 + a_pv * G22 * F22 + a_pT * G22 * H22 + a_vT * F22 * H22 + a_p^2 * G22^2 + a_v^2 * F22^2 + a_T^2 * H22^2</f>
+        <v>1.6782329539054341E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>905.26315789473688</v>
       </c>
@@ -1727,8 +3520,27 @@
       <c r="D23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <f>(A23 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.45964912280701747</v>
+      </c>
+      <c r="G23">
+        <f>(B23 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H23">
+        <f>(E23 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I23">
+        <f xml:space="preserve"> a_c + a_p * G23 + a_v * F23 + a_T * H23 + a_pv * G23 * F23 + a_pT * G23 * H23 + a_vT * F23 * H23 + a_p^2 * G23^2 + a_v^2 * F23^2 + a_T^2 * H23^2</f>
+        <v>1.5868402529737792E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>994.73684210526312</v>
       </c>
@@ -1742,8 +3554,27 @@
       <c r="D24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <f>(A24 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.34035087719298251</v>
+      </c>
+      <c r="G24">
+        <f>(B24 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H24">
+        <f>(E24 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <f xml:space="preserve"> a_c + a_p * G24 + a_v * F24 + a_T * H24 + a_pv * G24 * F24 + a_pT * G24 * H24 + a_vT * F24 * H24 + a_p^2 * G24^2 + a_v^2 * F24^2 + a_T^2 * H24^2</f>
+        <v>1.4956091152366758E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1084.21052631579</v>
       </c>
@@ -1757,8 +3588,27 @@
       <c r="D25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <f>(A25 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.22105263157894661</v>
+      </c>
+      <c r="G25">
+        <f>(B25 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H25">
+        <f>(E25 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <f xml:space="preserve"> a_c + a_p * G25 + a_v * F25 + a_T * H25 + a_pv * G25 * F25 + a_pT * G25 * H25 + a_vT * F25 * H25 + a_p^2 * G25^2 + a_v^2 * F25^2 + a_T^2 * H25^2</f>
+        <v>1.4045395406941231E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1173.6842105263161</v>
       </c>
@@ -1772,8 +3622,27 @@
       <c r="D26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <f>(A26 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.10175438596491192</v>
+      </c>
+      <c r="G26">
+        <f>(B26 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H26">
+        <f>(E26 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I26">
+        <f xml:space="preserve"> a_c + a_p * G26 + a_v * F26 + a_T * H26 + a_pv * G26 * F26 + a_pT * G26 * H26 + a_vT * F26 * H26 + a_p^2 * G26^2 + a_v^2 * F26^2 + a_T^2 * H26^2</f>
+        <v>1.3136315293461235E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1263.1578947368421</v>
       </c>
@@ -1787,8 +3656,27 @@
       <c r="D27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <f>(A27 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>1.7543859649122775E-2</v>
+      </c>
+      <c r="G27">
+        <f>(B27 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H27">
+        <f>(E27 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <f xml:space="preserve"> a_c + a_p * G27 + a_v * F27 + a_T * H27 + a_pv * G27 * F27 + a_pT * G27 * H27 + a_vT * F27 * H27 + a_p^2 * G27^2 + a_v^2 * F27^2 + a_T^2 * H27^2</f>
+        <v>1.2228850811926747E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1352.6315789473681</v>
       </c>
@@ -1802,8 +3690,27 @@
       <c r="D28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <f>(A28 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.13684210526315746</v>
+      </c>
+      <c r="G28">
+        <f>(B28 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H28">
+        <f>(E28 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <f xml:space="preserve"> a_c + a_p * G28 + a_v * F28 + a_T * H28 + a_pv * G28 * F28 + a_pT * G28 * H28 + a_vT * F28 * H28 + a_p^2 * G28^2 + a_v^2 * F28^2 + a_T^2 * H28^2</f>
+        <v>1.1323001962337775E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1442.105263157895</v>
       </c>
@@ -1817,8 +3724,27 @@
       <c r="D29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <f>(A29 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.25614035087719339</v>
+      </c>
+      <c r="G29">
+        <f>(B29 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H29">
+        <f>(E29 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <f xml:space="preserve"> a_c + a_p * G29 + a_v * F29 + a_T * H29 + a_pv * G29 * F29 + a_pT * G29 * H29 + a_vT * F29 * H29 + a_p^2 * G29^2 + a_v^2 * F29^2 + a_T^2 * H29^2</f>
+        <v>1.0418768744694308E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1531.578947368421</v>
       </c>
@@ -1832,8 +3758,27 @@
       <c r="D30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <f>(A30 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.37543859649122807</v>
+      </c>
+      <c r="G30">
+        <f>(B30 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H30">
+        <f>(E30 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <f xml:space="preserve"> a_c + a_p * G30 + a_v * F30 + a_T * H30 + a_pv * G30 * F30 + a_pT * G30 * H30 + a_vT * F30 * H30 + a_p^2 * G30^2 + a_v^2 * F30^2 + a_T^2 * H30^2</f>
+        <v>9.5161511589963738E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1621.0526315789471</v>
       </c>
@@ -1847,8 +3792,27 @@
       <c r="D31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <f>(A31 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.49473684210526275</v>
+      </c>
+      <c r="G31">
+        <f>(B31 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H31">
+        <f>(E31 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <f xml:space="preserve"> a_c + a_p * G31 + a_v * F31 + a_T * H31 + a_pv * G31 * F31 + a_pT * G31 * H31 + a_vT * F31 * H31 + a_p^2 * G31^2 + a_v^2 * F31^2 + a_T^2 * H31^2</f>
+        <v>8.6151492052439476E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1710.526315789474</v>
       </c>
@@ -1862,8 +3826,27 @@
       <c r="D32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>27</v>
+      </c>
+      <c r="F32">
+        <f>(A32 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.6140350877192986</v>
+      </c>
+      <c r="G32">
+        <f>(B32 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H32">
+        <f>(E32 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I32">
+        <f xml:space="preserve"> a_c + a_p * G32 + a_v * F32 + a_T * H32 + a_pv * G32 * F32 + a_pT * G32 * H32 + a_vT * F32 * H32 + a_p^2 * G32^2 + a_v^2 * F32^2 + a_T^2 * H32^2</f>
+        <v>7.7157628834370285E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1800</v>
       </c>
@@ -1876,6 +3859,25 @@
       </c>
       <c r="D33">
         <v>32</v>
+      </c>
+      <c r="E33">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <f>(A33 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="G33">
+        <f>(B33 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H33">
+        <f>(E33 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <f xml:space="preserve"> a_c + a_p * G33 + a_v * F33 + a_T * H33 + a_pv * G33 * F33 + a_pT * G33 * H33 + a_vT * F33 * H33 + a_p^2 * G33^2 + a_v^2 * F33^2 + a_T^2 * H33^2</f>
+        <v>6.8179921935756366E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1885,10 +3887,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1896,9 +3898,13 @@
     <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1911,8 +3917,23 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1300</v>
       </c>
@@ -1925,8 +3946,27 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <f>(A2 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G2">
+        <f>(B2 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>-3</v>
+      </c>
+      <c r="H2">
+        <f>(E2 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> a_c + a_p * G2 + a_v * F2 + a_T * H2 + a_pv * G2 * F2 + a_pT * G2 * H2 + a_vT * F2 * H2 + a_p^2 * G2^2 + a_v^2 * F2^2 + a_T^2 * H2^2</f>
+        <v>-5.1608780330200882E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>633.33333333333326</v>
       </c>
@@ -1939,8 +3979,27 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <f>(A3 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.8222222222222223</v>
+      </c>
+      <c r="G3">
+        <f>(B3 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>-3</v>
+      </c>
+      <c r="H3">
+        <f>(E3 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> a_c + a_p * G3 + a_v * F3 + a_T * H3 + a_pv * G3 * F3 + a_pT * G3 * H3 + a_vT * F3 * H3 + a_p^2 * G3^2 + a_v^2 * F3^2 + a_T^2 * H3^2</f>
+        <v>-1.0040627554039444E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>300</v>
       </c>
@@ -1953,8 +4012,27 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <f>(A4 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.2666666666666666</v>
+      </c>
+      <c r="G4">
+        <f>(B4 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>-3</v>
+      </c>
+      <c r="H4">
+        <f>(E4 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <f xml:space="preserve"> a_c + a_p * G4 + a_v * F4 + a_T * H4 + a_pv * G4 * F4 + a_pT * G4 * H4 + a_vT * F4 * H4 + a_p^2 * G4^2 + a_v^2 * F4^2 + a_T^2 * H4^2</f>
+        <v>-1.2446866609109035E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1466.666666666667</v>
       </c>
@@ -1967,8 +4045,27 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <f>(A5 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.28888888888888931</v>
+      </c>
+      <c r="G5">
+        <f>(B5 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H5">
+        <f>(E5 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <f xml:space="preserve"> a_c + a_p * G5 + a_v * F5 + a_T * H5 + a_pv * G5 * F5 + a_pT * G5 * H5 + a_vT * F5 * H5 + a_p^2 * G5^2 + a_v^2 * F5^2 + a_T^2 * H5^2</f>
+        <v>7.2904443118485766E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>800</v>
       </c>
@@ -1981,8 +4078,27 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <f>(A6 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="G6">
+        <f>(B6 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H6">
+        <f>(E6 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <f xml:space="preserve"> a_c + a_p * G6 + a_v * F6 + a_T * H6 + a_pv * G6 * F6 + a_pT * G6 * H6 + a_vT * F6 * H6 + a_p^2 * G6^2 + a_v^2 * F6^2 + a_T^2 * H6^2</f>
+        <v>1.1901332807564622E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>300</v>
       </c>
@@ -1995,8 +4111,27 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <f>(A7 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.2666666666666666</v>
+      </c>
+      <c r="G7">
+        <f>(B7 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H7">
+        <f>(E7 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <f xml:space="preserve"> a_c + a_p * G7 + a_v * F7 + a_T * H7 + a_pv * G7 * F7 + a_pT * G7 * H7 + a_vT * F7 * H7 + a_p^2 * G7^2 + a_v^2 * F7^2 + a_T^2 * H7^2</f>
+        <v>1.5418361663871807E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1466.666666666667</v>
       </c>
@@ -2009,8 +4144,27 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <f>(A8 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.28888888888888931</v>
+      </c>
+      <c r="G8">
+        <f>(B8 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H8">
+        <f>(E8 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <f xml:space="preserve"> a_c + a_p * G8 + a_v * F8 + a_T * H8 + a_pv * G8 * F8 + a_pT * G8 * H8 + a_vT * F8 * H8 + a_p^2 * G8^2 + a_v^2 * F8^2 + a_T^2 * H8^2</f>
+        <v>9.584946323122942E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>966.66666666666663</v>
       </c>
@@ -2023,8 +4177,27 @@
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <f>(A9 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.37777777777777782</v>
+      </c>
+      <c r="G9">
+        <f>(B9 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H9">
+        <f>(E9 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <f xml:space="preserve"> a_c + a_p * G9 + a_v * F9 + a_T * H9 + a_pv * G9 * F9 + a_pT * G9 * H9 + a_vT * F9 * H9 + a_p^2 * G9^2 + a_v^2 * F9^2 + a_T^2 * H9^2</f>
+        <v>1.4331939471326617E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>466.66666666666657</v>
       </c>
@@ -2037,8 +4210,27 @@
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <f>(A10 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0444444444444447</v>
+      </c>
+      <c r="G10">
+        <f>(B10 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H10">
+        <f>(E10 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <f xml:space="preserve"> a_c + a_p * G10 + a_v * F10 + a_T * H10 + a_pv * G10 * F10 + a_pT * G10 * H10 + a_vT * F10 * H10 + a_p^2 * G10^2 + a_v^2 * F10^2 + a_T^2 * H10^2</f>
+        <v>1.9129386177690416E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1633.333333333333</v>
       </c>
@@ -2051,8 +4243,27 @@
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <f>(A11 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.51111111111111074</v>
+      </c>
+      <c r="G11">
+        <f>(B11 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f>(E11 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <f xml:space="preserve"> a_c + a_p * G11 + a_v * F11 + a_T * H11 + a_pv * G11 * F11 + a_pT * G11 * H11 + a_vT * F11 * H11 + a_p^2 * G11^2 + a_v^2 * F11^2 + a_T^2 * H11^2</f>
+        <v>9.9543727250258063E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1133.333333333333</v>
       </c>
@@ -2065,8 +4276,27 @@
       <c r="D12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <f>(A12 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.15555555555555595</v>
+      </c>
+      <c r="G12">
+        <f>(B12 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f>(E12 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <f xml:space="preserve"> a_c + a_p * G12 + a_v * F12 + a_T * H12 + a_pv * G12 * F12 + a_pT * G12 * H12 + a_vT * F12 * H12 + a_p^2 * G12^2 + a_v^2 * F12^2 + a_T^2 * H12^2</f>
+        <v>1.5981783723286094E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>466.66666666666657</v>
       </c>
@@ -2079,8 +4309,27 @@
       <c r="D13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <f>(A13 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0444444444444447</v>
+      </c>
+      <c r="G13">
+        <f>(B13 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>(E13 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <f xml:space="preserve"> a_c + a_p * G13 + a_v * F13 + a_T * H13 + a_pv * G13 * F13 + a_pT * G13 * H13 + a_vT * F13 * H13 + a_p^2 * G13^2 + a_v^2 * F13^2 + a_T^2 * H13^2</f>
+        <v>2.4096815033659989E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>100</v>
       </c>
@@ -2094,8 +4343,27 @@
       <c r="D14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <f>(A14 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.5333333333333334</v>
+      </c>
+      <c r="G14">
+        <f>(B14 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>(E14 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <f xml:space="preserve"> a_c + a_p * G14 + a_v * F14 + a_T * H14 + a_pv * G14 * F14 + a_pT * G14 * H14 + a_vT * F14 * H14 + a_p^2 * G14^2 + a_v^2 * F14^2 + a_T^2 * H14^2</f>
+        <v>1.1077476042957562E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>178.9473684210526</v>
       </c>
@@ -2109,8 +4377,27 @@
       <c r="D15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <f>(A15 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.4280701754385967</v>
+      </c>
+      <c r="G15">
+        <f>(B15 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>(E15 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <f xml:space="preserve"> a_c + a_p * G15 + a_v * F15 + a_T * H15 + a_pv * G15 * F15 + a_pT * G15 * H15 + a_vT * F15 * H15 + a_p^2 * G15^2 + a_v^2 * F15^2 + a_T^2 * H15^2</f>
+        <v>1.0720441593447493E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>257.89473684210532</v>
       </c>
@@ -2124,8 +4411,27 @@
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <f>(A16 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.3228070175438595</v>
+      </c>
+      <c r="G16">
+        <f>(B16 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>(E16 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <f xml:space="preserve"> a_c + a_p * G16 + a_v * F16 + a_T * H16 + a_pv * G16 * F16 + a_pT * G16 * H16 + a_vT * F16 * H16 + a_p^2 * G16^2 + a_v^2 * F16^2 + a_T^2 * H16^2</f>
+        <v>1.0364664988877705E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>336.84210526315792</v>
       </c>
@@ -2139,8 +4445,27 @@
       <c r="D17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <f>(A17 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.2175438596491228</v>
+      </c>
+      <c r="G17">
+        <f>(B17 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>(E17 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <f xml:space="preserve"> a_c + a_p * G17 + a_v * F17 + a_T * H17 + a_pv * G17 * F17 + a_pT * G17 * H17 + a_vT * F17 * H17 + a_p^2 * G17^2 + a_v^2 * F17^2 + a_T^2 * H17^2</f>
+        <v>1.00101462292482E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>415.78947368421052</v>
       </c>
@@ -2154,8 +4479,27 @@
       <c r="D18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <f>(A18 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.1122807017543859</v>
+      </c>
+      <c r="G18">
+        <f>(B18 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>(E18 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <f xml:space="preserve"> a_c + a_p * G18 + a_v * F18 + a_T * H18 + a_pv * G18 * F18 + a_pT * G18 * H18 + a_vT * F18 * H18 + a_p^2 * G18^2 + a_v^2 * F18^2 + a_T^2 * H18^2</f>
+        <v>9.6568853145589714E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>494.73684210526312</v>
       </c>
@@ -2169,8 +4513,27 @@
       <c r="D19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <f>(A19 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0070175438596491</v>
+      </c>
+      <c r="G19">
+        <f>(B19 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>(E19 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I19">
+        <f xml:space="preserve"> a_c + a_p * G19 + a_v * F19 + a_T * H19 + a_pv * G19 * F19 + a_pT * G19 * H19 + a_vT * F19 * H19 + a_p^2 * G19^2 + a_v^2 * F19^2 + a_T^2 * H19^2</f>
+        <v>9.3048822448100286E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>573.68421052631584</v>
       </c>
@@ -2184,8 +4547,27 @@
       <c r="D20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <f>(A20 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.9017543859649122</v>
+      </c>
+      <c r="G20">
+        <f>(B20 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>(E20 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <f xml:space="preserve"> a_c + a_p * G20 + a_v * F20 + a_T * H20 + a_pv * G20 * F20 + a_pT * G20 * H20 + a_vT * F20 * H20 + a_p^2 * G20^2 + a_v^2 * F20^2 + a_T^2 * H20^2</f>
+        <v>8.9541370200013608E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>652.63157894736844</v>
       </c>
@@ -2199,8 +4581,27 @@
       <c r="D21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <f>(A21 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.79649122807017536</v>
+      </c>
+      <c r="G21">
+        <f>(B21 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>(E21 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <f xml:space="preserve"> a_c + a_p * G21 + a_v * F21 + a_T * H21 + a_pv * G21 * F21 + a_pT * G21 * H21 + a_vT * F21 * H21 + a_p^2 * G21^2 + a_v^2 * F21^2 + a_T^2 * H21^2</f>
+        <v>8.6046496401329768E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>731.57894736842104</v>
       </c>
@@ -2214,8 +4615,27 @@
       <c r="D22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <f>(A22 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.69122807017543864</v>
+      </c>
+      <c r="G22">
+        <f>(B22 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>(E22 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I22">
+        <f xml:space="preserve"> a_c + a_p * G22 + a_v * F22 + a_T * H22 + a_pv * G22 * F22 + a_pT * G22 * H22 + a_vT * F22 * H22 + a_p^2 * G22^2 + a_v^2 * F22^2 + a_T^2 * H22^2</f>
+        <v>8.2564201052048695E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>810.52631578947364</v>
       </c>
@@ -2229,8 +4649,27 @@
       <c r="D23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <f>(A23 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.5859649122807018</v>
+      </c>
+      <c r="G23">
+        <f>(B23 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>(E23 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I23">
+        <f xml:space="preserve"> a_c + a_p * G23 + a_v * F23 + a_T * H23 + a_pv * G23 * F23 + a_pT * G23 * H23 + a_vT * F23 * H23 + a_p^2 * G23^2 + a_v^2 * F23^2 + a_T^2 * H23^2</f>
+        <v>7.9094484152170443E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>889.47368421052624</v>
       </c>
@@ -2244,8 +4683,27 @@
       <c r="D24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <f>(A24 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.48070175438596502</v>
+      </c>
+      <c r="G24">
+        <f>(B24 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>(E24 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <f xml:space="preserve"> a_c + a_p * G24 + a_v * F24 + a_T * H24 + a_pv * G24 * F24 + a_pT * G24 * H24 + a_vT * F24 * H24 + a_p^2 * G24^2 + a_v^2 * F24^2 + a_T^2 * H24^2</f>
+        <v>7.5637345701695001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>968.42105263157896</v>
       </c>
@@ -2259,8 +4717,27 @@
       <c r="D25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <f>(A25 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.37543859649122807</v>
+      </c>
+      <c r="G25">
+        <f>(B25 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>(E25 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <f xml:space="preserve"> a_c + a_p * G25 + a_v * F25 + a_T * H25 + a_pv * G25 * F25 + a_pT * G25 * H25 + a_vT * F25 * H25 + a_p^2 * G25^2 + a_v^2 * F25^2 + a_T^2 * H25^2</f>
+        <v>7.2192785700622335E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1047.3684210526319</v>
       </c>
@@ -2274,8 +4751,27 @@
       <c r="D26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <f>(A26 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.27017543859649079</v>
+      </c>
+      <c r="G26">
+        <f>(B26 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>(E26 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I26">
+        <f xml:space="preserve"> a_c + a_p * G26 + a_v * F26 + a_T * H26 + a_pv * G26 * F26 + a_pT * G26 * H26 + a_vT * F26 * H26 + a_p^2 * G26^2 + a_v^2 * F26^2 + a_T^2 * H26^2</f>
+        <v>6.8760804148952472E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1126.3157894736839</v>
       </c>
@@ -2289,8 +4785,27 @@
       <c r="D27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <f>(A27 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.16491228070175476</v>
+      </c>
+      <c r="G27">
+        <f>(B27 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>(E27 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <f xml:space="preserve"> a_c + a_p * G27 + a_v * F27 + a_T * H27 + a_pv * G27 * F27 + a_pT * G27 * H27 + a_vT * F27 * H27 + a_p^2 * G27^2 + a_v^2 * F27^2 + a_T^2 * H27^2</f>
+        <v>6.5341401046685463E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1205.2631578947371</v>
       </c>
@@ -2304,8 +4819,27 @@
       <c r="D28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <f>(A28 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-5.9649122807017195E-2</v>
+      </c>
+      <c r="G28">
+        <f>(B28 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>(E28 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <f xml:space="preserve"> a_c + a_p * G28 + a_v * F28 + a_T * H28 + a_pv * G28 * F28 + a_pT * G28 * H28 + a_vT * F28 * H28 + a_p^2 * G28^2 + a_v^2 * F28^2 + a_T^2 * H28^2</f>
+        <v>6.1934576393821179E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1284.2105263157889</v>
       </c>
@@ -2319,8 +4853,27 @@
       <c r="D29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <f>(A29 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>4.5614035087718545E-2</v>
+      </c>
+      <c r="G29">
+        <f>(B29 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>(E29 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <f xml:space="preserve"> a_c + a_p * G29 + a_v * F29 + a_T * H29 + a_pv * G29 * F29 + a_pT * G29 * H29 + a_vT * F29 * H29 + a_p^2 * G29^2 + a_v^2 * F29^2 + a_T^2 * H29^2</f>
+        <v>5.8540330190359792E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1363.1578947368421</v>
       </c>
@@ -2334,8 +4887,27 @@
       <c r="D30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <f>(A30 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.15087719298245611</v>
+      </c>
+      <c r="G30">
+        <f>(B30 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>(E30 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <f xml:space="preserve"> a_c + a_p * G30 + a_v * F30 + a_T * H30 + a_pv * G30 * F30 + a_pT * G30 * H30 + a_vT * F30 * H30 + a_p^2 * G30^2 + a_v^2 * F30^2 + a_T^2 * H30^2</f>
+        <v>5.5158662436301121E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1442.105263157895</v>
       </c>
@@ -2349,8 +4921,27 @@
       <c r="D31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <f>(A31 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.25614035087719339</v>
+      </c>
+      <c r="G31">
+        <f>(B31 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>(E31 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <f xml:space="preserve"> a_c + a_p * G31 + a_v * F31 + a_T * H31 + a_pv * G31 * F31 + a_pT * G31 * H31 + a_vT * F31 * H31 + a_p^2 * G31^2 + a_v^2 * F31^2 + a_T^2 * H31^2</f>
+        <v>5.1789573131645261E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1521.0526315789471</v>
       </c>
@@ -2364,8 +4955,27 @@
       <c r="D32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>27</v>
+      </c>
+      <c r="F32">
+        <f>(A32 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.36140350877192939</v>
+      </c>
+      <c r="G32">
+        <f>(B32 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>(E32 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I32">
+        <f xml:space="preserve"> a_c + a_p * G32 + a_v * F32 + a_T * H32 + a_pv * G32 * F32 + a_pT * G32 * H32 + a_vT * F32 * H32 + a_p^2 * G32^2 + a_v^2 * F32^2 + a_T^2 * H32^2</f>
+        <v>4.8433062276392229E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1600</v>
       </c>
@@ -2378,6 +4988,25 @@
       </c>
       <c r="D33">
         <v>32</v>
+      </c>
+      <c r="E33">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <f>(A33 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G33">
+        <f>(B33 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>(E33 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <f xml:space="preserve"> a_c + a_p * G33 + a_v * F33 + a_T * H33 + a_pv * G33 * F33 + a_pT * G33 * H33 + a_vT * F33 * H33 + a_p^2 * G33^2 + a_v^2 * F33^2 + a_T^2 * H33^2</f>
+        <v>4.5089129870541974E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2387,20 +5016,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2413,8 +5045,23 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>966.66666666666663</v>
       </c>
@@ -2427,8 +5074,27 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <f>(A2 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.37777777777777782</v>
+      </c>
+      <c r="G2">
+        <f>(B2 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H2">
+        <f>(E2 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> a_c + a_p * G2 + a_v * F2 + a_T * H2 + a_pv * G2 * F2 + a_pT * G2 * H2 + a_vT * F2 * H2 + a_p^2 * G2^2 + a_v^2 * F2^2 + a_T^2 * H2^2</f>
+        <v>1.4331939471326617E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1633.333333333333</v>
       </c>
@@ -2441,8 +5107,27 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <f>(A3 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.51111111111111074</v>
+      </c>
+      <c r="G3">
+        <f>(B3 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H3">
+        <f>(E3 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> a_c + a_p * G3 + a_v * F3 + a_T * H3 + a_pv * G3 * F3 + a_pT * G3 * H3 + a_vT * F3 * H3 + a_p^2 * G3^2 + a_v^2 * F3^2 + a_T^2 * H3^2</f>
+        <v>8.0138271755350841E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1466.666666666667</v>
       </c>
@@ -2455,8 +5140,27 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <f>(A4 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.28888888888888931</v>
+      </c>
+      <c r="G4">
+        <f>(B4 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f>(E4 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <f xml:space="preserve"> a_c + a_p * G4 + a_v * F4 + a_T * H4 + a_pv * G4 * F4 + a_pT * G4 * H4 + a_vT * F4 * H4 + a_p^2 * G4^2 + a_v^2 * F4^2 + a_T^2 * H4^2</f>
+        <v>1.1957903773539214E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>633.33333333333326</v>
       </c>
@@ -2469,8 +5173,27 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <f>(A5 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.8222222222222223</v>
+      </c>
+      <c r="G5">
+        <f>(B5 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f>(E5 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <f xml:space="preserve"> a_c + a_p * G5 + a_v * F5 + a_T * H5 + a_pv * G5 * F5 + a_pT * G5 * H5 + a_vT * F5 * H5 + a_p^2 * G5^2 + a_v^2 * F5^2 + a_T^2 * H5^2</f>
+        <v>2.2059648279706488E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1800</v>
       </c>
@@ -2483,8 +5206,27 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <f>(A6 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="G6">
+        <f>(B6 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>(E6 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <f xml:space="preserve"> a_c + a_p * G6 + a_v * F6 + a_T * H6 + a_pv * G6 * F6 + a_pT * G6 * H6 + a_vT * F6 * H6 + a_p^2 * G6^2 + a_v^2 * F6^2 + a_T^2 * H6^2</f>
+        <v>7.9564476274190752E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1133.333333333333</v>
       </c>
@@ -2497,8 +5239,27 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <f>(A7 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.15555555555555595</v>
+      </c>
+      <c r="G7">
+        <f>(B7 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>(E7 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <f xml:space="preserve"> a_c + a_p * G7 + a_v * F7 + a_T * H7 + a_pv * G7 * F7 + a_pT * G7 * H7 + a_vT * F7 * H7 + a_p^2 * G7^2 + a_v^2 * F7^2 + a_T^2 * H7^2</f>
+        <v>6.5038062839097013E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>800</v>
       </c>
@@ -2511,8 +5272,27 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <f>(A8 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="G8">
+        <f>(B8 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f>(E8 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <f xml:space="preserve"> a_c + a_p * G8 + a_v * F8 + a_T * H8 + a_pv * G8 * F8 + a_pT * G8 * H8 + a_vT * F8 * H8 + a_p^2 * G8^2 + a_v^2 * F8^2 + a_T^2 * H8^2</f>
+        <v>2.002808747665968E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1300</v>
       </c>
@@ -2525,8 +5305,27 @@
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <f>(A9 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G9">
+        <f>(B9 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H9">
+        <f>(E9 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <f xml:space="preserve"> a_c + a_p * G9 + a_v * F9 + a_T * H9 + a_pv * G9 * F9 + a_pT * G9 * H9 + a_vT * F9 * H9 + a_p^2 * G9^2 + a_v^2 * F9^2 + a_T^2 * H9^2</f>
+        <v>8.4347575094175665E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1300</v>
       </c>
@@ -2539,8 +5338,27 @@
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <f>(A10 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G10">
+        <f>(B10 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>(E10 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <f xml:space="preserve"> a_c + a_p * G10 + a_v * F10 + a_T * H10 + a_pv * G10 * F10 + a_pT * G10 * H10 + a_vT * F10 * H10 + a_p^2 * G10^2 + a_v^2 * F10^2 + a_T^2 * H10^2</f>
+        <v>5.7862990363595785E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>633.33333333333326</v>
       </c>
@@ -2553,8 +5371,27 @@
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <f>(A11 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.8222222222222223</v>
+      </c>
+      <c r="G11">
+        <f>(B11 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H11">
+        <f>(E11 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <f xml:space="preserve"> a_c + a_p * G11 + a_v * F11 + a_T * H11 + a_pv * G11 * F11 + a_pT * G11 * H11 + a_vT * F11 * H11 + a_p^2 * G11^2 + a_v^2 * F11^2 + a_T^2 * H11^2</f>
+        <v>1.3068069808760336E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>633.33333333333326</v>
       </c>
@@ -2567,8 +5404,27 @@
       <c r="D12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <f>(A12 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.8222222222222223</v>
+      </c>
+      <c r="G12">
+        <f>(B12 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>(E12 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <f xml:space="preserve"> a_c + a_p * G12 + a_v * F12 + a_T * H12 + a_pv * G12 * F12 + a_pT * G12 * H12 + a_vT * F12 * H12 + a_p^2 * G12^2 + a_v^2 * F12^2 + a_T^2 * H12^2</f>
+        <v>8.6899637320001465E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>966.66666666666663</v>
       </c>
@@ -2581,8 +5437,27 @@
       <c r="D13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <f>(A13 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.37777777777777782</v>
+      </c>
+      <c r="G13">
+        <f>(B13 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>(E13 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <f xml:space="preserve"> a_c + a_p * G13 + a_v * F13 + a_T * H13 + a_pv * G13 * F13 + a_pT * G13 * H13 + a_vT * F13 * H13 + a_p^2 * G13^2 + a_v^2 * F13^2 + a_T^2 * H13^2</f>
+        <v>1.8002132624519537E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1133.333333333333</v>
       </c>
@@ -2595,8 +5470,27 @@
       <c r="D14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <f>(A14 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.15555555555555595</v>
+      </c>
+      <c r="G14">
+        <f>(B14 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H14">
+        <f>(E14 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <f xml:space="preserve"> a_c + a_p * G14 + a_v * F14 + a_T * H14 + a_pv * G14 * F14 + a_pT * G14 * H14 + a_vT * F14 * H14 + a_p^2 * G14^2 + a_v^2 * F14^2 + a_T^2 * H14^2</f>
+        <v>1.2744002471018718E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1466.666666666667</v>
       </c>
@@ -2609,8 +5503,27 @@
       <c r="D15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <f>(A15 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.28888888888888931</v>
+      </c>
+      <c r="G15">
+        <f>(B15 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H15">
+        <f>(E15 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <f xml:space="preserve"> a_c + a_p * G15 + a_v * F15 + a_T * H15 + a_pv * G15 * F15 + a_pT * G15 * H15 + a_vT * F15 * H15 + a_p^2 * G15^2 + a_v^2 * F15^2 + a_T^2 * H15^2</f>
+        <v>7.2904443118485766E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>466.66666666666657</v>
       </c>
@@ -2623,8 +5536,27 @@
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <f>(A16 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0444444444444447</v>
+      </c>
+      <c r="G16">
+        <f>(B16 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H16">
+        <f>(E16 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <f xml:space="preserve"> a_c + a_p * G16 + a_v * F16 + a_T * H16 + a_pv * G16 * F16 + a_pT * G16 * H16 + a_vT * F16 * H16 + a_p^2 * G16^2 + a_v^2 * F16^2 + a_T^2 * H16^2</f>
+        <v>1.4240412760862737E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1633.333333333333</v>
       </c>
@@ -2637,8 +5569,27 @@
       <c r="D17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <f>(A17 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.51111111111111074</v>
+      </c>
+      <c r="G17">
+        <f>(B17 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f>(E17 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <f xml:space="preserve"> a_c + a_p * G17 + a_v * F17 + a_T * H17 + a_pv * G17 * F17 + a_pT * G17 * H17 + a_vT * F17 * H17 + a_p^2 * G17^2 + a_v^2 * F17^2 + a_T^2 * H17^2</f>
+        <v>9.9543727250258063E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>466.66666666666657</v>
       </c>
@@ -2651,8 +5602,27 @@
       <c r="D18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <f>(A18 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0444444444444447</v>
+      </c>
+      <c r="G18">
+        <f>(B18 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H18">
+        <f>(E18 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <f xml:space="preserve"> a_c + a_p * G18 + a_v * F18 + a_T * H18 + a_pv * G18 * F18 + a_pT * G18 * H18 + a_vT * F18 * H18 + a_p^2 * G18^2 + a_v^2 * F18^2 + a_T^2 * H18^2</f>
+        <v>1.9129386177690416E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1133.333333333333</v>
       </c>
@@ -2665,8 +5635,27 @@
       <c r="D19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <f>(A19 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.15555555555555595</v>
+      </c>
+      <c r="G19">
+        <f>(B19 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <f>(E19 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I19">
+        <f xml:space="preserve"> a_c + a_p * G19 + a_v * F19 + a_T * H19 + a_pv * G19 * F19 + a_pT * G19 * H19 + a_vT * F19 * H19 + a_p^2 * G19^2 + a_v^2 * F19^2 + a_T^2 * H19^2</f>
+        <v>1.5981783723286094E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>800</v>
       </c>
@@ -2679,8 +5668,27 @@
       <c r="D20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>27</v>
+      </c>
+      <c r="F20">
+        <f>(A20 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="G20">
+        <f>(B20 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>(E20 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <f xml:space="preserve"> a_c + a_p * G20 + a_v * F20 + a_T * H20 + a_pv * G20 * F20 + a_pT * G20 * H20 + a_vT * F20 * H20 + a_p^2 * G20^2 + a_v^2 * F20^2 + a_T^2 * H20^2</f>
+        <v>7.9556386317299835E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>300</v>
       </c>
@@ -2693,8 +5701,27 @@
       <c r="D21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <f>(A21 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.2666666666666666</v>
+      </c>
+      <c r="G21">
+        <f>(B21 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>(E21 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I21">
+        <f xml:space="preserve"> a_c + a_p * G21 + a_v * F21 + a_T * H21 + a_pv * G21 * F21 + a_pT * G21 * H21 + a_vT * F21 * H21 + a_p^2 * G21^2 + a_v^2 * F21^2 + a_T^2 * H21^2</f>
+        <v>1.0175431785260512E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>466.66666666666657</v>
       </c>
@@ -2707,8 +5734,27 @@
       <c r="D22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <f>(A22 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0444444444444447</v>
+      </c>
+      <c r="G22">
+        <f>(B22 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>(E22 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I22">
+        <f xml:space="preserve"> a_c + a_p * G22 + a_v * F22 + a_T * H22 + a_pv * G22 * F22 + a_pT * G22 * H22 + a_vT * F22 * H22 + a_p^2 * G22^2 + a_v^2 * F22^2 + a_T^2 * H22^2</f>
+        <v>9.4298947831769897E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1300</v>
       </c>
@@ -2721,8 +5767,27 @@
       <c r="D23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <f>(A23 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G23">
+        <f>(B23 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H23">
+        <f>(E23 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I23">
+        <f xml:space="preserve"> a_c + a_p * G23 + a_v * F23 + a_T * H23 + a_pv * G23 * F23 + a_pT * G23 * H23 + a_vT * F23 * H23 + a_p^2 * G23^2 + a_v^2 * F23^2 + a_T^2 * H23^2</f>
+        <v>1.1161671421617487E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1133.333333333333</v>
       </c>
@@ -2735,8 +5800,27 @@
       <c r="D24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <f>(A24 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.15555555555555595</v>
+      </c>
+      <c r="G24">
+        <f>(B24 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H24">
+        <f>(E24 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <f xml:space="preserve"> a_c + a_p * G24 + a_v * F24 + a_T * H24 + a_pv * G24 * F24 + a_pT * G24 * H24 + a_vT * F24 * H24 + a_p^2 * G24^2 + a_v^2 * F24^2 + a_T^2 * H24^2</f>
+        <v>9.5846766578932419E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1300</v>
       </c>
@@ -2749,8 +5833,27 @@
       <c r="D25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <f>(A25 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G25">
+        <f>(B25 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <f>(E25 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I25">
+        <f xml:space="preserve"> a_c + a_p * G25 + a_v * F25 + a_T * H25 + a_pv * G25 * F25 + a_pT * G25 * H25 + a_vT * F25 * H25 + a_p^2 * G25^2 + a_v^2 * F25^2 + a_T^2 * H25^2</f>
+        <v>1.3967040772959309E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>800</v>
       </c>
@@ -2763,8 +5866,27 @@
       <c r="D26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <f>(A26 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="G26">
+        <f>(B26 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H26">
+        <f>(E26 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I26">
+        <f xml:space="preserve"> a_c + a_p * G26 + a_v * F26 + a_T * H26 + a_pv * G26 * F26 + a_pT * G26 * H26 + a_vT * F26 * H26 + a_p^2 * G26^2 + a_v^2 * F26^2 + a_T^2 * H26^2</f>
+        <v>1.5925482422541205E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>966.66666666666663</v>
       </c>
@@ -2777,8 +5899,27 @@
       <c r="D27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <f>(A27 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.37777777777777782</v>
+      </c>
+      <c r="G27">
+        <f>(B27 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H27">
+        <f>(E27 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I27">
+        <f xml:space="preserve"> a_c + a_p * G27 + a_v * F27 + a_T * H27 + a_pv * G27 * F27 + a_pT * G27 * H27 + a_vT * F27 * H27 + a_p^2 * G27^2 + a_v^2 * F27^2 + a_T^2 * H27^2</f>
+        <v>1.0740201757275591E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>966.66666666666663</v>
       </c>
@@ -2791,8 +5932,27 @@
       <c r="D28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <f>(A28 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.37777777777777782</v>
+      </c>
+      <c r="G28">
+        <f>(B28 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>(E28 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <f xml:space="preserve"> a_c + a_p * G28 + a_v * F28 + a_T * H28 + a_pv * G28 * F28 + a_pT * G28 * H28 + a_vT * F28 * H28 + a_p^2 * G28^2 + a_v^2 * F28^2 + a_T^2 * H28^2</f>
+        <v>7.2269194823665018E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>300</v>
       </c>
@@ -2805,8 +5965,27 @@
       <c r="D29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <f>(A29 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.2666666666666666</v>
+      </c>
+      <c r="G29">
+        <f>(B29 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H29">
+        <f>(E29 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I29">
+        <f xml:space="preserve"> a_c + a_p * G29 + a_v * F29 + a_T * H29 + a_pv * G29 * F29 + a_pT * G29 * H29 + a_vT * F29 * H29 + a_p^2 * G29^2 + a_v^2 * F29^2 + a_T^2 * H29^2</f>
+        <v>1.5418361663871807E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>633.33333333333326</v>
       </c>
@@ -2819,8 +5998,27 @@
       <c r="D30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <f>(A30 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.8222222222222223</v>
+      </c>
+      <c r="G30">
+        <f>(B30 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H30">
+        <f>(E30 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <f xml:space="preserve"> a_c + a_p * G30 + a_v * F30 + a_T * H30 + a_pv * G30 * F30 + a_pT * G30 * H30 + a_vT * F30 * H30 + a_p^2 * G30^2 + a_v^2 * F30^2 + a_T^2 * H30^2</f>
+        <v>1.7524631324662469E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1466.666666666667</v>
       </c>
@@ -2833,8 +6031,27 @@
       <c r="D31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <f>(A31 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>0.28888888888888931</v>
+      </c>
+      <c r="G31">
+        <f>(B31 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>1.333333333333335</v>
+      </c>
+      <c r="H31">
+        <f>(E31 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <f xml:space="preserve"> a_c + a_p * G31 + a_v * F31 + a_T * H31 + a_pv * G31 * F31 + a_pT * G31 * H31 + a_vT * F31 * H31 + a_p^2 * G31^2 + a_v^2 * F31^2 + a_T^2 * H31^2</f>
+        <v>9.584946323122942E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>466.66666666666657</v>
       </c>
@@ -2847,8 +6064,27 @@
       <c r="D32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>27</v>
+      </c>
+      <c r="F32">
+        <f>(A32 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-1.0444444444444447</v>
+      </c>
+      <c r="G32">
+        <f>(B32 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <f>(E32 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I32">
+        <f xml:space="preserve"> a_c + a_p * G32 + a_v * F32 + a_T * H32 + a_pv * G32 * F32 + a_pT * G32 * H32 + a_vT * F32 * H32 + a_p^2 * G32^2 + a_v^2 * F32^2 + a_T^2 * H32^2</f>
+        <v>2.4096815033659989E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>800</v>
       </c>
@@ -2860,6 +6096,211 @@
       </c>
       <c r="D33">
         <v>32</v>
+      </c>
+      <c r="E33">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <f>(A33 - 'Model params'!$B$3) / ('Model params'!$B$4 / 2)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="G33">
+        <f>(B33 - 'Model params'!$D$3) / ('Model params'!$D$4 / 2)</f>
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="H33">
+        <f>(E33 - 'Model params'!$F$3) / ('Model params'!$F$4 / 2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <f xml:space="preserve"> a_c + a_p * G33 + a_v * F33 + a_T * H33 + a_pv * G33 * F33 + a_pT * G33 * H33 + a_vT * F33 * H33 + a_p^2 * G33^2 + a_v^2 * F33^2 + a_T^2 * H33^2</f>
+        <v>1.1901332807564622E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>500</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>800</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2.0787859279164898E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE(B1:B2)</f>
+        <v>1250</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(D1:D2)</f>
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(F1:F2)</f>
+        <v>413.5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5">
+        <v>9.3948054282492598E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <f>B2-B1</f>
+        <v>1500</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <f>D2-D1</f>
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <f>F2-F1</f>
+        <v>773</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-7.5339400668004396E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.5012264787433499E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-2.9187803312474702E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5.2863739426022198E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-4.3102028086409103E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5.9403781726260899E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3.1229308675534201E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7.3908583477267E-3</v>
       </c>
     </row>
   </sheetData>
